--- a/REVER_DailyTracker_20200514.xlsx
+++ b/REVER_DailyTracker_20200514.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF43CA31-2722-452D-93C9-B430FBCA9107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -115,16 +109,25 @@
   </si>
   <si>
     <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>[Back End] Video Feedback and Comments</t>
+  </si>
+  <si>
+    <t>RPA_Sales</t>
+  </si>
+  <si>
+    <t>Code Integration and Deploy into the server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +148,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,10 +242,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -259,9 +281,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -371,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -565,33 +592,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -612,7 +639,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -622,8 +649,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -635,7 +662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -646,10 +673,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -663,9 +690,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -679,9 +706,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -695,8 +722,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -713,25 +740,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -744,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -752,18 +779,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -786,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -795,7 +822,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -804,46 +831,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -856,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -864,18 +891,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -898,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -907,7 +934,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -916,46 +943,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -968,26 +995,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1037,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43965</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43965</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1019,7 +1182,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1028,46 +1191,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1079,27 +1242,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1285,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1131,7 +1418,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1140,46 +1427,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1191,27 +1478,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,28 +1521,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1264,46 +1539,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1315,27 +1590,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1367,7 +1642,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1376,46 +1651,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1427,27 +1702,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1479,7 +1754,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1488,270 +1763,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200514.xlsx
+++ b/REVER_DailyTracker_20200514.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51D6586-3734-4920-8266-B8738092F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -118,12 +118,27 @@
   </si>
   <si>
     <t>Code Integration and Deploy into the server</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Account Report</t>
+  </si>
+  <si>
+    <t>Gone through document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -288,7 +303,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,14 +607,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -771,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -883,12 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,22 +941,44 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43965</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43965</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -995,12 +1032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1243,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1367,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1479,7 +1516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1591,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1703,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/REVER_DailyTracker_20200514.xlsx
+++ b/REVER_DailyTracker_20200514.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51D6586-3734-4920-8266-B8738092F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D912D-87EE-4AFE-841F-96ADDD644153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -66,73 +66,41 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
     <t>[Backend] CRM</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
-  </si>
-  <si>
-    <t>RPA_Sale/[Front End]  Full app keyword search</t>
-  </si>
-  <si>
-    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
-the result with paging and pagelisted concept in MVC</t>
-  </si>
-  <si>
-    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
-  </si>
-  <si>
-    <t>[Back End] Video Feedback and Comments</t>
-  </si>
-  <si>
-    <t>RPA_Sales</t>
-  </si>
-  <si>
-    <t>Code Integration and Deploy into the server</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
-    <t>Subnet Integration for Troubleshooting</t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>Account Report</t>
-  </si>
-  <si>
-    <t>Gone through document</t>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Website - edited qnqiry form in Contact us page,animate images in home page.content replaced in homepage.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -280,30 +248,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -413,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,22 +596,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -654,188 +634,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:7">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -888,7 +708,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,24 +717,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -944,41 +763,33 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43965</v>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43965</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1022,7 +833,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1031,24 +842,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1074,44 +884,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43965</v>
+        <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>43965</v>
+        <v>43951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
@@ -1158,7 +968,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1167,24 +977,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1270,7 +1079,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1279,24 +1088,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1323,24 +1131,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1394,7 +1190,119 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43965</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1405,22 +1313,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1506,7 +1413,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1517,22 +1424,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1618,7 +1524,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1629,22 +1535,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1730,7 +1635,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1741,22 +1646,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1842,7 +1746,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200514.xlsx
+++ b/REVER_DailyTracker_20200514.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D912D-87EE-4AFE-841F-96ADDD644153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84CF0E7-2587-43E6-9709-6EE583118880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Website - edited qnqiry form in Contact us page,animate images in home page.content replaced in homepage.</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Mohan San RPA work Demo</t>
+  </si>
+  <si>
+    <t>Knowledge Transfer</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1133,11 +1142,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1203,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
